--- a/biology/Botanique/Rosier_de_Virginie/Rosier_de_Virginie.xlsx
+++ b/biology/Botanique/Rosier_de_Virginie/Rosier_de_Virginie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Rosier de Virginie, Rosa virginiana, est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier de la section des Carolinae, originaire de l'est des États-Unis.
 Synonyme : Rosa lucida Ehrh. et rosier à feuilles luisantes
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le feuillage passe du pourpre au vert durant l'été puis au rouge sombre en hiver. Ses fleurs, en juillet, sont rose pâle.
 </t>
@@ -543,12 +557,14 @@
           <t>Hybrides</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rosa ×mariae-graebnerae hybride spontané de Rosa virginiana et de Rosa palustris aux fleurs rose vif durant tout l'été qui se rencontre près de ses parents en Amérique du Nord ;
 Rosa ×rapa ou rosier de Turneps à fleurs roses doubles ;
-‘Rose d'Amour’ Rosa virginiana × ? Rosa carolinae à fleurs très doubles rose pâle au centre rose plus foncé[1] ;
-‘Rose d'Orsay’ différente par son port et sa durée de floraison[2].</t>
+‘Rose d'Amour’ Rosa virginiana × ? Rosa carolinae à fleurs très doubles rose pâle au centre rose plus foncé ;
+‘Rose d'Orsay’ différente par son port et sa durée de floraison.</t>
         </is>
       </c>
     </row>
